--- a/public/template_xls/template_vm.xlsx
+++ b/public/template_xls/template_vm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\template_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{E4EF04D0-9D9C-46D9-B554-F86F215F04D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2910EC18-CC51-4255-849E-179DB63F7150}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73B21CB-DC6A-4FE2-B62C-2DFFC437A136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,23 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Nama VM</t>
   </si>
   <si>
-    <t>Host</t>
-  </si>
-  <si>
     <t>IP Address</t>
   </si>
   <si>
     <t>Hostname</t>
   </si>
   <si>
-    <t>Processor</t>
-  </si>
-  <si>
     <t>Jenis Server</t>
   </si>
   <si>
@@ -62,18 +56,9 @@
     <t>VM1</t>
   </si>
   <si>
-    <t>HOSTVM1</t>
-  </si>
-  <si>
     <t>HOSTNAMEVM1</t>
   </si>
   <si>
-    <t>Intel Server</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
     <t>LVM1</t>
   </si>
   <si>
@@ -90,13 +75,74 @@
   </si>
   <si>
     <t>Memory (Gb)</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>Aplikasi ID</t>
+  </si>
+  <si>
+    <t>Core per Socket</t>
+  </si>
+  <si>
+    <t>Jumlah Socket</t>
+  </si>
+  <si>
+    <t>Masa Aktif</t>
+  </si>
+  <si>
+    <t>Memo VM</t>
+  </si>
+  <si>
+    <t>kosong</t>
+  </si>
+  <si>
+    <t>Status Replikasi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Note :
+- Kolom isian tidak boleh kosong
+- Input Cluster ID, OS ID dan Aplikasi ID sesuai dengan ID yang terdaftar
+- Jenis Server dan Status Replikasi diisi dengan cara memilih dropdown yang sudah tersedia
+- Kolom Memo VM, isi dengan kata "kosong" (tanpa tanda petik)
+- Pastikan seluruh kolom yang kosong </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dihapus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, dengan cara blok kolom yang kosong kemudian klik kanan -&gt; pilih delete  -&gt; ok</t>
+    </r>
+  </si>
+  <si>
+    <t>site_recovery_manajemen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +162,21 @@
       <b/>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,12 +202,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,10 +235,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,53 +534,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A3" sqref="A3:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30" customWidth="1"/>
+    <col min="16" max="16" width="63.7109375" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.7109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -519,34 +620,54 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>500</v>
-      </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>45387</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{2F0CC714-969F-4B4A-A6BE-548207039CF5}">
+      <formula1>"WEB,APP,DB,MNGMT,DMZ,DEV"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{6141B151-EDC6-44C9-A5B4-869579F7E041}">
+      <formula1>"database_replikasi,site_recovery_manajemen,belum_replikasi"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
